--- a/状態異常.xlsx
+++ b/状態異常.xlsx
@@ -177,97 +177,265 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動不可</t>
+    <t>毎秒ダメージ</t>
+    <rPh sb="0" eb="2">
+      <t>マイビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎秒HP,MP吸収</t>
+    <rPh sb="0" eb="2">
+      <t>マイビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>命中率低下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ランダム移動</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毎秒ダメージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、被ダメージ増加、魔法使用&amp;移動時にダメージ</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>マイビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毎秒ダメージ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、被ダメージ増加（火属性のみ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水属性魔法使用で消える</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>マイビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移動不可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被ダメージ増加（氷属性のみ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火属性魔法使用で消える</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毎秒ダメージ</t>
-    <rPh sb="0" eb="2">
-      <t>マイビョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毎秒ダメージ、被ダメージ増加、魔法使用&amp;移動時にダメージ</t>
-    <rPh sb="0" eb="2">
-      <t>マイビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="13" eb="14">
+      <t>コオリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
       <t>ヒ</t>
     </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>命中率低下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ランダム移動</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>メイチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -321,7 +489,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="4"/>
+        <color rgb="FF7030A0"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -364,57 +532,35 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>移動不可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="4"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>移動不可</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>、</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="7" tint="-0.249977111117893"/>
+        <color rgb="FF7030A0"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>被ダメージ増加（氷属性のみ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火属性魔法使用で消える</t>
+      <t>スキル使用不可</t>
     </r>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -422,87 +568,11 @@
     <rPh sb="2" eb="4">
       <t>フカ</t>
     </rPh>
-    <rPh sb="13" eb="14">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>毎秒ダメージ、被ダメージ増加（火属性のみ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水属性魔法使用で消える</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>マイビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="8" eb="10">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>毎秒HP,MP吸収</t>
-    <rPh sb="0" eb="2">
-      <t>マイビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キュウシュウ</t>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -511,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,14 +594,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -567,6 +629,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -898,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +1035,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -974,52 +1097,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1317,15 +1401,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1351,7 +1435,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
@@ -1361,14 +1445,14 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="40">
+      <c r="F3" s="34">
         <v>1</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>22</v>
+      <c r="H3" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
@@ -1377,20 +1461,20 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="38">
-        <v>1</v>
-      </c>
-      <c r="E4" s="38">
-        <v>1</v>
-      </c>
-      <c r="F4" s="38">
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32">
         <v>1</v>
       </c>
       <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>19</v>
+      <c r="H4" s="26" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1398,43 +1482,43 @@
         <v>11</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="38">
+      <c r="C5" s="32">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="38">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="35" t="s">
-        <v>27</v>
+      <c r="H5" s="41" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="38">
-        <v>1</v>
-      </c>
-      <c r="E6" s="38">
-        <v>1</v>
-      </c>
-      <c r="F6" s="38">
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
         <v>1</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>23</v>
+      <c r="H6" s="27" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1443,16 +1527,16 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="38">
+      <c r="D7" s="32">
         <v>1</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="38">
+      <c r="F7" s="32">
         <v>1</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="35" t="s">
-        <v>21</v>
+      <c r="H7" s="30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1462,13 +1546,13 @@
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="38">
+      <c r="E8" s="32">
         <v>1</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="33" t="s">
-        <v>25</v>
+      <c r="H8" s="28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
@@ -1476,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="38">
+      <c r="C9" s="32">
         <v>1</v>
       </c>
       <c r="D9" s="16"/>
@@ -1485,8 +1569,8 @@
       <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>20</v>
+      <c r="H9" s="42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -1495,37 +1579,40 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="38">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="24" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="33">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="29" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="39">
-        <v>1</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="39">
-        <v>1</v>
-      </c>
-      <c r="F11" s="39">
-        <v>1</v>
-      </c>
-      <c r="G11" s="28">
-        <v>1</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/状態異常.xlsx
+++ b/状態異常.xlsx
@@ -194,61 +194,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>毎秒ダメージ、被ダメージ増加、水属性魔法使用で消える</t>
+    <rPh sb="0" eb="2">
+      <t>マイビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度低下、詠唱時間増加</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動不可、被ダメージ増加、火属性魔法使用で消える</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動不可、スキル使用不可</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1" tint="0.34998626667073579"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>命中率低下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ランダム移動</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>メイチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>毎秒ダメージ</t>
+      <t>毎秒ダメージ、被ダメージ増加</t>
     </r>
     <r>
       <rPr>
@@ -259,7 +293,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、被ダメージ増加、魔法使用&amp;移動時にダメージ</t>
+      <t>、魔法使用&amp;移動時にダメージ</t>
     </r>
     <rPh sb="0" eb="2">
       <t>マイビョウ</t>
@@ -285,186 +319,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>毎秒ダメージ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、被ダメージ増加（火属性のみ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水属性魔法使用で消える</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>マイビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>マホウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移動不可</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>被ダメージ増加（氷属性のみ）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火属性魔法使用で消える</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コオリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移動速度低下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>命中率低下</t>
-    </r>
+    <t>命中率低下、ランダム移動</t>
+    <rPh sb="0" eb="2">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度低下、命中率低下</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
     </rPh>
@@ -482,97 +350,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移動速度低下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、詠唱時間増加</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テイカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エイショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>移動不可</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>スキル使用不可</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,30 +371,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -639,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -976,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1052,22 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
@@ -1080,6 +818,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,13 +838,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1133,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1401,15 +1145,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1435,7 +1179,7 @@
       <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
@@ -1445,14 +1189,14 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="34">
+      <c r="F3" s="29">
         <v>1</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>21</v>
+      <c r="H3" s="39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
@@ -1461,20 +1205,20 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
-      <c r="D4" s="32">
-        <v>1</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1</v>
-      </c>
-      <c r="F4" s="32">
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
         <v>1</v>
       </c>
       <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>27</v>
+      <c r="H4" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1482,18 +1226,18 @@
         <v>11</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="32">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="32">
+      <c r="E5" s="27">
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="36" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1501,24 +1245,24 @@
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="26">
         <v>1</v>
       </c>
       <c r="C6" s="16"/>
-      <c r="D6" s="32">
-        <v>1</v>
-      </c>
-      <c r="E6" s="32">
-        <v>1</v>
-      </c>
-      <c r="F6" s="32">
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="27">
         <v>1</v>
       </c>
       <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>25</v>
+      <c r="H6" s="37" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1527,16 +1271,16 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="32">
+      <c r="D7" s="27">
         <v>1</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="32">
+      <c r="F7" s="27">
         <v>1</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="30" t="s">
-        <v>22</v>
+      <c r="H7" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1546,13 +1290,13 @@
       <c r="B8" s="9"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>1</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="28" t="s">
-        <v>24</v>
+      <c r="H8" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.4">
@@ -1560,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="32">
+      <c r="C9" s="27">
         <v>1</v>
       </c>
       <c r="D9" s="16"/>
@@ -1569,7 +1313,7 @@
       <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="37" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1579,14 +1323,14 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="32">
+      <c r="D10" s="27">
         <v>1</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="28" t="s">
-        <v>23</v>
+      <c r="H10" s="36" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="24" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -1594,25 +1338,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>1</v>
       </c>
       <c r="D11" s="22"/>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
         <v>1</v>
       </c>
       <c r="G11" s="23">
         <v>1</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>26</v>
+      <c r="H11" s="38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H15" s="40"/>
+      <c r="H15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
